--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_14-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_14-21.xlsx
@@ -32,15 +32,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -102,9 +108,6 @@
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
@@ -730,7 +733,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>120.28</v>
+        <v>24</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -756,7 +759,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>40</v>
+        <v>120.28</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -782,11 +785,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -808,11 +811,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -834,7 +837,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -860,7 +863,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -880,17 +883,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>55.670000000000002</v>
+        <v>194</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -898,7 +901,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -906,17 +909,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>74</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,7 +927,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -932,13 +935,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -950,7 +953,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -958,13 +961,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -976,7 +979,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -984,17 +987,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1016,11 +1019,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1028,7 +1031,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1036,17 +1039,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1054,7 +1057,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1062,17 +1065,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1088,13 +1091,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1114,17 +1117,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1132,7 +1135,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1140,13 +1143,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1158,7 +1161,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1166,17 +1169,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1184,7 +1187,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1192,51 +1195,77 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="K23" s="10">
-        <v>1446.9500000000001</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c t="s" r="A24" s="11">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
         <v>41</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c t="s" r="F24" s="12">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>20</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c t="s" r="N23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="10">
+        <v>1470.9500000000001</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="11">
         <v>42</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c t="s" r="I24" s="14">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c t="s" r="F25" s="12">
         <v>43</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c t="s" r="I25" s="14">
+        <v>44</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1301,10 +1330,13 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
